--- a/期末試験対策計画シート.xlsx
+++ b/期末試験対策計画シート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\Repositories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6A332F0-28AA-4E99-93A3-9F7D58F9CD09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42BA88C-287A-413B-895C-9BD78DCA75D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
   <dimension ref="B1:BO20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">

--- a/期末試験対策計画シート.xlsx
+++ b/期末試験対策計画シート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42BA88C-287A-413B-895C-9BD78DCA75D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B99A81-81D1-4458-A7C5-F116F75F2457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
   <dimension ref="B1:BO20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="30" t="s">
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="19">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="19">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="19">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="19">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/期末試験対策計画シート.xlsx
+++ b/期末試験対策計画シート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\GitHub\Studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B99A81-81D1-4458-A7C5-F116F75F2457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B121D0-1BF4-40F9-8348-B5917B31978C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト計画シート" sheetId="1" r:id="rId1"/>
@@ -1514,7 +1514,7 @@
   <dimension ref="B1:BO20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="19">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="19">
-        <v>0.18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="19">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="19">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
